--- a/src/co/jp/mid_pre/SCHOOL_UML_.xlsx
+++ b/src/co/jp/mid_pre/SCHOOL_UML_.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e354eabc4fa991d/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="160" documentId="8_{A9C659D3-7B2D-F247-A4E4-CF71C433EE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{090AF525-B08E-1D4D-A569-858786D464E8}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="8_{A9C659D3-7B2D-F247-A4E4-CF71C433EE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E2EA2C2-5241-584C-A02D-DD5331735BD4}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="500" windowWidth="25380" windowHeight="17500" xr2:uid="{15AAD26D-D079-48CE-A9B7-47E2035288BC}"/>
+    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="17500" xr2:uid="{15AAD26D-D079-48CE-A9B7-47E2035288BC}"/>
   </bookViews>
   <sheets>
     <sheet name="UML" sheetId="3" r:id="rId1"/>
@@ -2357,23 +2357,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>15976</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38484</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>90768</xdr:rowOff>
+      <xdr:rowOff>96213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>215807</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>230909</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>96998</xdr:rowOff>
+      <xdr:rowOff>169046</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="图片 11">
+        <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F555477-520A-0035-A624-FD8DC5B1A9CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0BCB229-4975-2CB4-94C7-BC3320A78B01}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2389,8 +2389,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2767643" y="8518950"/>
-          <a:ext cx="7704376" cy="10089260"/>
+          <a:off x="1289242" y="8524395"/>
+          <a:ext cx="10698788" cy="10155863"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2400,10 +2400,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2705,8 +2701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD903C4C-E534-4A83-8DE1-C435133C73B0}">
   <dimension ref="D2:AY82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="66" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BI82" sqref="BI82"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="66" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BP71" sqref="BP71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="15"/>
@@ -3239,7 +3235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC997CAC-DDA5-4688-8BA4-1A61E1613524}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
